--- a/Кухня/Закупки.xlsx
+++ b/Кухня/Закупки.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Repository\Wood.Furniture.Kitchen\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Repository\Wood\Кухня\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A60265B6-3924-4D12-A8BC-3C9FAA2EC02E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51244FDC-2B58-4A05-A57B-1B5521CF7D36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="8">
   <si>
     <t>Доска строганная 120 х 32</t>
   </si>
@@ -377,10 +377,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -455,6 +455,36 @@
         <v>404</v>
       </c>
     </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C4" t="s">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>10</v>
+      </c>
+      <c r="E4">
+        <v>490</v>
+      </c>
+      <c r="F4">
+        <f>E4*D4</f>
+        <v>4900</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C5" t="s">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>10</v>
+      </c>
+      <c r="E5">
+        <v>490</v>
+      </c>
+      <c r="F5">
+        <f>E5*D5</f>
+        <v>4900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Кухня/Закупки.xlsx
+++ b/Кухня/Закупки.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Repository\Wood\Кухня\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51244FDC-2B58-4A05-A57B-1B5521CF7D36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5669C8F-FC73-4137-80D9-1FC9940CDBF4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="8">
   <si>
     <t>Доска строганная 120 х 32</t>
   </si>
@@ -377,10 +377,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -485,6 +485,21 @@
         <v>4900</v>
       </c>
     </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C6" t="s">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>10</v>
+      </c>
+      <c r="E6">
+        <v>490</v>
+      </c>
+      <c r="F6">
+        <f>E6*D6</f>
+        <v>4900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
